--- a/raw_data/20200818_saline/20200818_Sensor2_Test_19.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_19.xlsx
@@ -1,1127 +1,1543 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F5EC6-5088-42B9-8591-1001F4C450CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>16573.499369</v>
+        <v>16573.499369000001</v>
       </c>
       <c r="B2" s="1">
-        <v>4.603750</v>
+        <v>4.6037499999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>1241.400000</v>
+        <v>1241.4000000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.775000</v>
+        <v>-306.77499999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>16583.496765</v>
       </c>
       <c r="G2" s="1">
-        <v>4.606527</v>
+        <v>4.6065269999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1265.390000</v>
+        <v>1265.3900000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.147000</v>
+        <v>-264.14699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>16593.579939</v>
+        <v>16593.579938999999</v>
       </c>
       <c r="L2" s="1">
-        <v>4.609328</v>
+        <v>4.6093279999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>1300.500000</v>
+        <v>1300.5</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.710000</v>
+        <v>-201.71</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>16604.069825</v>
+        <v>16604.069824999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.612242</v>
+        <v>4.6122420000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1311.750000</v>
+        <v>1311.75</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.730000</v>
+        <v>-183.73</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>16614.646019</v>
       </c>
       <c r="V2" s="1">
-        <v>4.615179</v>
+        <v>4.6151790000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.410000</v>
+        <v>-170.41</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>16625.097685</v>
+        <v>16625.097685000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.618083</v>
+        <v>4.6180830000000004</v>
       </c>
       <c r="AB2" s="1">
-        <v>1341.460000</v>
+        <v>1341.46</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.555000</v>
+        <v>-168.55500000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>16635.665944</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.621018</v>
+        <v>4.6210180000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>1354.130000</v>
+        <v>1354.13</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.500000</v>
+        <v>-178.5</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>16646.764922</v>
+        <v>16646.764921999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.624101</v>
+        <v>4.6241009999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1374.680000</v>
+        <v>1374.68</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.860000</v>
+        <v>-208.86</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>16657.304907</v>
+        <v>16657.304907000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.627029</v>
+        <v>4.6270290000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1396.230000</v>
+        <v>1396.23</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.128000</v>
+        <v>-253.12799999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>16668.664785</v>
+        <v>16668.664785000001</v>
       </c>
       <c r="AU2" s="1">
         <v>4.630185</v>
       </c>
       <c r="AV2" s="1">
-        <v>1420.820000</v>
+        <v>1420.82</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.599000</v>
+        <v>-313.59899999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>16679.860476</v>
+        <v>16679.860476000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.633295</v>
+        <v>4.6332950000000004</v>
       </c>
       <c r="BA2" s="1">
-        <v>1440.250000</v>
+        <v>1440.25</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.087000</v>
+        <v>-366.08699999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>16690.864720</v>
+        <v>16690.864720000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.636351</v>
+        <v>4.6363510000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1525.920000</v>
+        <v>1525.92</v>
       </c>
       <c r="BG2" s="1">
-        <v>-615.874000</v>
+        <v>-615.87400000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>16702.164082</v>
+        <v>16702.164081999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.639490</v>
+        <v>4.6394900000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1681.140000</v>
+        <v>1681.14</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1063.350000</v>
+        <v>-1063.3499999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>16712.569650</v>
+        <v>16712.569650000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.642380</v>
+        <v>4.6423800000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1977.900000</v>
+        <v>1977.9</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1838.210000</v>
+        <v>-1838.21</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>16722.895860</v>
+        <v>16722.895860000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.645249</v>
+        <v>4.6452489999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.150000</v>
+        <v>2366.15</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2732.250000</v>
+        <v>-2732.25</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>16733.654582</v>
+        <v>16733.654581999999</v>
       </c>
       <c r="BY2" s="1">
         <v>4.648237</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2856.810000</v>
+        <v>2856.81</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3707.170000</v>
+        <v>-3707.17</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>16744.892936</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.651359</v>
+        <v>4.6513590000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4283.200000</v>
+        <v>4283.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6050.780000</v>
+        <v>-6050.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>16573.935849</v>
+        <v>16573.935849000001</v>
       </c>
       <c r="B3" s="1">
-        <v>4.603871</v>
+        <v>4.6038709999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1240.990000</v>
+        <v>1240.99</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.585000</v>
+        <v>-306.58499999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>16583.606856</v>
+        <v>16583.606855999999</v>
       </c>
       <c r="G3" s="1">
-        <v>4.606557</v>
+        <v>4.6065569999999996</v>
       </c>
       <c r="H3" s="1">
-        <v>1266.070000</v>
+        <v>1266.07</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.364000</v>
+        <v>-264.36399999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>16593.927102</v>
+        <v>16593.927102000001</v>
       </c>
       <c r="L3" s="1">
-        <v>4.609424</v>
+        <v>4.6094239999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.717000</v>
+        <v>-201.71700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>16604.451746</v>
+        <v>16604.451745999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.612348</v>
+        <v>4.6123479999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1311.820000</v>
+        <v>1311.82</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.734000</v>
+        <v>-183.73400000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>16615.023938</v>
+        <v>16615.023937999998</v>
       </c>
       <c r="V3" s="1">
-        <v>4.615284</v>
+        <v>4.6152839999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.467000</v>
+        <v>-170.46700000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>16625.488534</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.618191</v>
+        <v>4.6181910000000004</v>
       </c>
       <c r="AB3" s="1">
-        <v>1341.410000</v>
+        <v>1341.41</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.530000</v>
+        <v>-168.53</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>16636.394598</v>
+        <v>16636.394597999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.621221</v>
+        <v>4.6212210000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1354.420000</v>
+        <v>1354.42</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.704000</v>
+        <v>-178.70400000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>16647.113640</v>
+        <v>16647.11364</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.624198</v>
+        <v>4.6241979999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1374.660000</v>
+        <v>1374.66</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.827000</v>
+        <v>-208.827</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>16657.693770</v>
+        <v>16657.693770000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.627137</v>
+        <v>4.6271370000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1396.270000</v>
+        <v>1396.27</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.150000</v>
+        <v>-253.15</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>16669.069517</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.630297</v>
+        <v>4.6302969999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>1420.820000</v>
+        <v>1420.82</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.542000</v>
+        <v>-313.54199999999997</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>16680.560332</v>
+        <v>16680.560332000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>4.633489</v>
       </c>
       <c r="BA3" s="1">
-        <v>1440.260000</v>
+        <v>1440.26</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.065000</v>
+        <v>-366.065</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>16691.546223</v>
+        <v>16691.546223000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.636541</v>
+        <v>4.6365410000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1525.940000</v>
+        <v>1525.94</v>
       </c>
       <c r="BG3" s="1">
-        <v>-615.870000</v>
+        <v>-615.87</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>16702.622880</v>
+        <v>16702.622879999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.639617</v>
+        <v>4.6396170000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1681.120000</v>
+        <v>1681.12</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1063.400000</v>
+        <v>-1063.4000000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>16712.982818</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.642495</v>
+        <v>4.6424950000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1977.630000</v>
+        <v>1977.63</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1838.300000</v>
+        <v>-1838.3</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>16723.397843</v>
+        <v>16723.397842999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.645388</v>
+        <v>4.6453879999999996</v>
       </c>
       <c r="BU3" s="1">
-        <v>2365.970000</v>
+        <v>2365.9699999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2732.360000</v>
+        <v>-2732.36</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>16734.117845</v>
+        <v>16734.117845000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.648366</v>
+        <v>4.6483660000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2856.730000</v>
+        <v>2856.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3707.750000</v>
+        <v>-3707.75</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>16745.487142</v>
+        <v>16745.487142000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.651524</v>
+        <v>4.6515240000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>4302.460000</v>
+        <v>4302.46</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6059.880000</v>
+        <v>-6059.88</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>16574.201706</v>
       </c>
       <c r="B4" s="1">
-        <v>4.603945</v>
+        <v>4.6039450000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>1240.850000</v>
+        <v>1240.8499999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.373000</v>
+        <v>-306.37299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>16583.946109</v>
       </c>
       <c r="G4" s="1">
-        <v>4.606652</v>
+        <v>4.6066520000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1266.030000</v>
+        <v>1266.03</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.464000</v>
+        <v>-264.464</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>16594.273310</v>
+        <v>16594.27331</v>
       </c>
       <c r="L4" s="1">
-        <v>4.609520</v>
+        <v>4.6095199999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.682000</v>
+        <v>-201.68199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>16604.800896</v>
+        <v>16604.800896000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.612445</v>
+        <v>4.6124450000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1311.790000</v>
+        <v>1311.79</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.807000</v>
+        <v>-183.80699999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>16615.710429</v>
+        <v>16615.710428999999</v>
       </c>
       <c r="V4" s="1">
         <v>4.615475</v>
       </c>
       <c r="W4" s="1">
-        <v>1324.530000</v>
+        <v>1324.53</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.251000</v>
+        <v>-170.251</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>16626.183428</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.618384</v>
+        <v>4.6183839999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.441000</v>
+        <v>-168.441</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>16636.736807</v>
+        <v>16636.736807000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.621316</v>
+        <v>4.6213160000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1354.190000</v>
+        <v>1354.19</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.498000</v>
+        <v>-178.49799999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>16647.465271</v>
+        <v>16647.465271000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.624296</v>
+        <v>4.6242960000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.819000</v>
+        <v>-208.81899999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>16658.053897</v>
+        <v>16658.053897000002</v>
       </c>
       <c r="AP4" s="1">
         <v>4.627237</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1396.270000</v>
+        <v>1396.27</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.120000</v>
+        <v>-253.12</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>16669.741103</v>
@@ -1130,1358 +1546,1358 @@
         <v>4.630484</v>
       </c>
       <c r="AV4" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.604000</v>
+        <v>-313.60399999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>16680.971515</v>
+        <v>16680.971515000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.633603</v>
+        <v>4.6336029999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1440.270000</v>
+        <v>1440.27</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.072000</v>
+        <v>-366.072</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>16691.953933</v>
+        <v>16691.953933000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.636654</v>
+        <v>4.6366540000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1525.890000</v>
+        <v>1525.89</v>
       </c>
       <c r="BG4" s="1">
-        <v>-615.847000</v>
+        <v>-615.84699999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>16703.021695</v>
+        <v>16703.021694999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.639728</v>
+        <v>4.6397279999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1681.160000</v>
+        <v>1681.16</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1063.380000</v>
+        <v>-1063.3800000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>16713.377174</v>
+        <v>16713.377174000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.642605</v>
+        <v>4.6426049999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1977.650000</v>
+        <v>1977.65</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1838.480000</v>
+        <v>-1838.48</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>16723.833796</v>
+        <v>16723.833795999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.645509</v>
+        <v>4.6455089999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.250000</v>
+        <v>2366.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2732.050000</v>
+        <v>-2732.05</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>16734.538949</v>
+        <v>16734.538949000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.648483</v>
+        <v>4.6484829999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2856.440000</v>
+        <v>2856.44</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3708.100000</v>
+        <v>-3708.1</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>16746.023813</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.651673</v>
+        <v>4.6516729999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>4292.530000</v>
+        <v>4292.53</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6044.110000</v>
+        <v>-6044.11</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>16574.537496</v>
+        <v>16574.537496000001</v>
       </c>
       <c r="B5" s="1">
-        <v>4.604038</v>
+        <v>4.6040380000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.305000</v>
+        <v>-306.30500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>16584.290331</v>
       </c>
       <c r="G5" s="1">
-        <v>4.606747</v>
+        <v>4.6067470000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>1265.630000</v>
+        <v>1265.6300000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.326000</v>
+        <v>-264.32600000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>16594.967246</v>
       </c>
       <c r="L5" s="1">
-        <v>4.609713</v>
+        <v>4.6097130000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1300.160000</v>
+        <v>1300.1600000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.712000</v>
+        <v>-201.71199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>16605.494303</v>
+        <v>16605.494302999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.612637</v>
+        <v>4.6126370000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>1311.710000</v>
+        <v>1311.71</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.819000</v>
+        <v>-183.81899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>16616.054625</v>
+        <v>16616.054625000001</v>
       </c>
       <c r="V5" s="1">
-        <v>4.615571</v>
+        <v>4.6155710000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1324.610000</v>
+        <v>1324.61</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.425000</v>
+        <v>-170.42500000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>16626.534101</v>
+        <v>16626.534101000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.618482</v>
+        <v>4.6184820000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1341.580000</v>
+        <v>1341.58</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.454000</v>
+        <v>-168.45400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>16637.082021</v>
+        <v>16637.082020999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.621412</v>
+        <v>4.6214120000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1354.230000</v>
+        <v>1354.23</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.433000</v>
+        <v>-178.43299999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>16648.124455</v>
+        <v>16648.124455000001</v>
       </c>
       <c r="AK5" s="1">
         <v>4.624479</v>
       </c>
       <c r="AL5" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.799000</v>
+        <v>-208.79900000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>16658.738883</v>
+        <v>16658.738883000002</v>
       </c>
       <c r="AP5" s="1">
         <v>4.627427</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1396.260000</v>
+        <v>1396.26</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.102000</v>
+        <v>-253.102</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>16670.194937</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.630610</v>
+        <v>4.6306099999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1420.860000</v>
+        <v>1420.86</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.590000</v>
+        <v>-313.58999999999997</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>16681.348475</v>
+        <v>16681.348474999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.633708</v>
+        <v>4.6337080000000004</v>
       </c>
       <c r="BA5" s="1">
-        <v>1440.270000</v>
+        <v>1440.27</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.085000</v>
+        <v>-366.08499999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>16692.337342</v>
+        <v>16692.337341999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.636760</v>
+        <v>4.6367599999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1525.880000</v>
+        <v>1525.88</v>
       </c>
       <c r="BG5" s="1">
-        <v>-615.912000</v>
+        <v>-615.91200000000003</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>16703.397663</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.639833</v>
+        <v>4.6398330000000003</v>
       </c>
       <c r="BK5" s="1">
-        <v>1681.090000</v>
+        <v>1681.09</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1063.280000</v>
+        <v>-1063.28</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>16713.789345</v>
+        <v>16713.789345000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.642719</v>
+        <v>4.6427189999999996</v>
       </c>
       <c r="BP5" s="1">
-        <v>1977.450000</v>
+        <v>1977.45</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1838.390000</v>
+        <v>-1838.39</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>16724.262365</v>
+        <v>16724.262364999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.645628</v>
+        <v>4.6456280000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>2365.850000</v>
+        <v>2365.85</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2732.330000</v>
+        <v>-2732.33</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>16734.975926</v>
+        <v>16734.975925999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.648604</v>
+        <v>4.6486039999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2856.890000</v>
+        <v>2856.89</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3707.340000</v>
+        <v>-3707.34</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>16746.566438</v>
+        <v>16746.566438000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.651824</v>
+        <v>4.6518240000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>4286.590000</v>
+        <v>4286.59</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6061.200000</v>
+        <v>-6061.2</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>16574.881261</v>
+        <v>16574.881260999999</v>
       </c>
       <c r="B6" s="1">
-        <v>4.604134</v>
+        <v>4.6041340000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1240.850000</v>
+        <v>1240.8499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.255000</v>
+        <v>-306.255</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>16584.981290</v>
+        <v>16584.98129</v>
       </c>
       <c r="G6" s="1">
-        <v>4.606939</v>
+        <v>4.6069389999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>1265.350000</v>
+        <v>1265.3499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-263.840000</v>
+        <v>-263.83999999999997</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>16595.313918</v>
       </c>
       <c r="L6" s="1">
-        <v>4.609809</v>
+        <v>4.6098090000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>1300.110000</v>
+        <v>1300.1099999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.899000</v>
+        <v>-201.899</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>16605.844975</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.612735</v>
+        <v>4.6127349999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1311.760000</v>
+        <v>1311.76</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.730000</v>
+        <v>-183.73</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>16616.386944</v>
+        <v>16616.386944000002</v>
       </c>
       <c r="V6" s="1">
-        <v>4.615663</v>
+        <v>4.6156629999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.293000</v>
+        <v>-170.29300000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>16627.205186</v>
+        <v>16627.205185999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.618668</v>
+        <v>4.6186680000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>1341.460000</v>
+        <v>1341.46</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.560000</v>
+        <v>-168.56</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>16637.732772</v>
+        <v>16637.732771999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.621592</v>
+        <v>4.6215919999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1354.290000</v>
+        <v>1354.29</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.629000</v>
+        <v>-178.62899999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>16648.512823</v>
+        <v>16648.512823000001</v>
       </c>
       <c r="AK6" s="1">
         <v>4.624587</v>
       </c>
       <c r="AL6" s="1">
-        <v>1374.680000</v>
+        <v>1374.68</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.813000</v>
+        <v>-208.81299999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>16659.153994</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.627543</v>
+        <v>4.6275430000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1396.260000</v>
+        <v>1396.26</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.089000</v>
+        <v>-253.089</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>16670.562506</v>
+        <v>16670.562505999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.630712</v>
+        <v>4.6307119999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.596000</v>
+        <v>-313.596</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>16681.726923</v>
+        <v>16681.726922999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>4.633813</v>
       </c>
       <c r="BA6" s="1">
-        <v>1440.250000</v>
+        <v>1440.25</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.082000</v>
+        <v>-366.08199999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>16692.700941</v>
+        <v>16692.700940999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.636861</v>
+        <v>4.6368609999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1525.910000</v>
+        <v>1525.91</v>
       </c>
       <c r="BG6" s="1">
-        <v>-615.853000</v>
+        <v>-615.85299999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>16703.821213</v>
+        <v>16703.821212999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.639950</v>
+        <v>4.6399499999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1681.190000</v>
+        <v>1681.19</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1063.310000</v>
+        <v>-1063.31</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>16714.185153</v>
+        <v>16714.185152999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.642829</v>
+        <v>4.6428289999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.460000</v>
+        <v>1977.46</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1838.260000</v>
+        <v>-1838.26</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>16724.673026</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.645743</v>
+        <v>4.6457430000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>2365.610000</v>
+        <v>2365.61</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2732.020000</v>
+        <v>-2732.02</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>16735.411413</v>
+        <v>16735.411413000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.648725</v>
+        <v>4.6487249999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2856.960000</v>
+        <v>2856.96</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3707.040000</v>
+        <v>-3707.04</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>16747.098644</v>
+        <v>16747.098644000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.651972</v>
+        <v>4.6519719999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>4302.760000</v>
+        <v>4302.76</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6045.880000</v>
+        <v>-6045.88</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>16575.570167</v>
+        <v>16575.570167000002</v>
       </c>
       <c r="B7" s="1">
-        <v>4.604325</v>
+        <v>4.6043250000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1241.210000</v>
+        <v>1241.21</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.827000</v>
+        <v>-306.827</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>16585.324490</v>
+        <v>16585.324489999999</v>
       </c>
       <c r="G7" s="1">
-        <v>4.607035</v>
+        <v>4.6070349999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1265.340000</v>
+        <v>1265.3399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.570000</v>
+        <v>-264.57</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>16595.659132</v>
+        <v>16595.659132000001</v>
       </c>
       <c r="L7" s="1">
-        <v>4.609905</v>
+        <v>4.6099050000000004</v>
       </c>
       <c r="M7" s="1">
-        <v>1300.420000</v>
+        <v>1300.42</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.778000</v>
+        <v>-201.77799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>16606.193662</v>
+        <v>16606.193662000001</v>
       </c>
       <c r="Q7" s="1">
         <v>4.612832</v>
       </c>
       <c r="R7" s="1">
-        <v>1311.740000</v>
+        <v>1311.74</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.686000</v>
+        <v>-183.68600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>16617.043648</v>
+        <v>16617.043647999999</v>
       </c>
       <c r="V7" s="1">
-        <v>4.615845</v>
+        <v>4.6158450000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1324.370000</v>
+        <v>1324.37</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.219000</v>
+        <v>-170.21899999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>16627.577682</v>
+        <v>16627.577681999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.618772</v>
+        <v>4.6187719999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.480000</v>
+        <v>-168.48</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>16638.112246</v>
+        <v>16638.112246000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.621698</v>
+        <v>4.6216980000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1354.160000</v>
+        <v>1354.16</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.482000</v>
+        <v>-178.482</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>16648.859526</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.624683</v>
+        <v>4.6246830000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.792000</v>
+        <v>-208.792</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>16659.514588</v>
+        <v>16659.514587999998</v>
       </c>
       <c r="AP7" s="1">
         <v>4.627643</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1396.310000</v>
+        <v>1396.31</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.102000</v>
+        <v>-253.102</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>16670.923065</v>
+        <v>16670.923064999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.630812</v>
+        <v>4.6308119999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1420.830000</v>
+        <v>1420.83</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.623000</v>
+        <v>-313.62299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>16682.162906</v>
+        <v>16682.162906000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>4.633934</v>
       </c>
       <c r="BA7" s="1">
-        <v>1440.250000</v>
+        <v>1440.25</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.047000</v>
+        <v>-366.04700000000003</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>16693.178555</v>
+        <v>16693.178554999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.636994</v>
+        <v>4.6369939999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1525.880000</v>
+        <v>1525.88</v>
       </c>
       <c r="BG7" s="1">
-        <v>-615.842000</v>
+        <v>-615.84199999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>16704.146620</v>
+        <v>16704.14662</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.640041</v>
+        <v>4.6400410000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1681.090000</v>
+        <v>1681.09</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1063.330000</v>
+        <v>-1063.33</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>16714.610687</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.642947</v>
+        <v>4.6429470000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.410000</v>
+        <v>1977.41</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1838.330000</v>
+        <v>-1838.33</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>16725.105041</v>
+        <v>16725.105040999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.645863</v>
+        <v>4.6458630000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>2365.740000</v>
+        <v>2365.7399999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2731.870000</v>
+        <v>-2731.87</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>16735.832019</v>
+        <v>16735.832019000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.648842</v>
+        <v>4.6488420000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2856.050000</v>
+        <v>2856.05</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3707.000000</v>
+        <v>-3707</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>16747.646755</v>
+        <v>16747.646755000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.652124</v>
+        <v>4.6521239999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>4280.790000</v>
+        <v>4280.79</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6049.970000</v>
+        <v>-6049.97</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>16575.911910</v>
+        <v>16575.911909999999</v>
       </c>
       <c r="B8" s="1">
-        <v>4.604420</v>
+        <v>4.6044200000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1241.140000</v>
+        <v>1241.1400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.614000</v>
+        <v>-306.61399999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>16585.671690</v>
+        <v>16585.671689999999</v>
       </c>
       <c r="G8" s="1">
-        <v>4.607131</v>
+        <v>4.6071309999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1265.650000</v>
+        <v>1265.6500000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.966000</v>
+        <v>-263.96600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>16596.305420</v>
+        <v>16596.305420000001</v>
       </c>
       <c r="L8" s="1">
-        <v>4.610085</v>
+        <v>4.6100849999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1300.210000</v>
+        <v>1300.21</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.136000</v>
+        <v>-202.136</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>16606.850894</v>
+        <v>16606.850893999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.613014</v>
+        <v>4.6130139999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1311.810000</v>
+        <v>1311.81</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.772000</v>
+        <v>-183.77199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>16617.428080</v>
+        <v>16617.428080000002</v>
       </c>
       <c r="V8" s="1">
-        <v>4.615952</v>
+        <v>4.6159520000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1324.460000</v>
+        <v>1324.46</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.266000</v>
+        <v>-170.26599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>16627.926867</v>
+        <v>16627.926866999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.618869</v>
+        <v>4.6188690000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.394000</v>
+        <v>-168.39400000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>16638.455940</v>
+        <v>16638.45594</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.621793</v>
+        <v>4.6217930000000003</v>
       </c>
       <c r="AG8" s="1">
-        <v>1354.110000</v>
+        <v>1354.11</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.625000</v>
+        <v>-178.625</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>16649.209205</v>
+        <v>16649.209204999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.624780</v>
+        <v>4.6247800000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>1374.700000</v>
+        <v>1374.7</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.837000</v>
+        <v>-208.83699999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>16659.875672</v>
+        <v>16659.875671999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.627743</v>
+        <v>4.6277429999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1396.280000</v>
+        <v>1396.28</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.113000</v>
+        <v>-253.113</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>16671.341688</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.630928</v>
+        <v>4.6309279999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1420.820000</v>
+        <v>1420.82</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.575000</v>
+        <v>-313.57499999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>16682.445657</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.634013</v>
+        <v>4.6340130000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>1440.270000</v>
+        <v>1440.27</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.054000</v>
+        <v>-366.05399999999997</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>16693.424075</v>
+        <v>16693.424074999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.637062</v>
+        <v>4.6370620000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1525.900000</v>
+        <v>1525.9</v>
       </c>
       <c r="BG8" s="1">
-        <v>-615.871000</v>
+        <v>-615.87099999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>16704.546364</v>
+        <v>16704.546364000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.640152</v>
+        <v>4.6401519999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1681.040000</v>
+        <v>1681.04</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1063.300000</v>
+        <v>-1063.3</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>16715.007007</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.643058</v>
+        <v>4.6430579999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1977.450000</v>
+        <v>1977.45</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1838.370000</v>
+        <v>-1838.37</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>16725.518209</v>
+        <v>16725.518209000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.645977</v>
+        <v>4.6459770000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>2365.780000</v>
+        <v>2365.7800000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2731.890000</v>
+        <v>-2731.89</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>16736.255602</v>
+        <v>16736.255602000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.648960</v>
+        <v>4.6489599999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2856.670000</v>
+        <v>2856.67</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3707.960000</v>
+        <v>-3707.96</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>16748.187859</v>
+        <v>16748.187859000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.652274</v>
+        <v>4.6522740000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4303.030000</v>
+        <v>4303.03</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6058.170000</v>
+        <v>-6058.17</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>16576.344927</v>
+        <v>16576.344926999998</v>
       </c>
       <c r="B9" s="1">
-        <v>4.604540</v>
+        <v>4.6045400000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1241.160000</v>
+        <v>1241.1600000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.608000</v>
+        <v>-306.608</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>16586.315992</v>
       </c>
       <c r="G9" s="1">
-        <v>4.607310</v>
+        <v>4.60731</v>
       </c>
       <c r="H9" s="1">
-        <v>1265.100000</v>
+        <v>1265.0999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.320000</v>
+        <v>-264.32</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>16596.695274</v>
+        <v>16596.695274000002</v>
       </c>
       <c r="L9" s="1">
-        <v>4.610193</v>
+        <v>4.6101929999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1300.130000</v>
+        <v>1300.1300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.919000</v>
+        <v>-201.91900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>16607.238252</v>
+        <v>16607.238251999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.613122</v>
+        <v>4.6131219999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>1311.790000</v>
+        <v>1311.79</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.786000</v>
+        <v>-183.786</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>16617.773263</v>
+        <v>16617.773262999999</v>
       </c>
       <c r="V9" s="1">
-        <v>4.616048</v>
+        <v>4.6160480000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1324.310000</v>
+        <v>1324.31</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.416000</v>
+        <v>-170.416</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>16628.274065</v>
+        <v>16628.274065000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.618965</v>
+        <v>4.6189650000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1341.340000</v>
+        <v>1341.34</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.525000</v>
+        <v>-168.52500000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>16638.798179</v>
+        <v>16638.798179000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.621888</v>
+        <v>4.6218880000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1354.370000</v>
+        <v>1354.37</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.534000</v>
+        <v>-178.53399999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>16649.624887</v>
+        <v>16649.624887000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.624896</v>
+        <v>4.6248959999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.800000</v>
+        <v>-208.8</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>16660.594872</v>
+        <v>16660.594872000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.627943</v>
+        <v>4.6279430000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1396.290000</v>
+        <v>1396.29</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.110000</v>
+        <v>-253.11</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>16671.654664</v>
+        <v>16671.654664000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.631015</v>
+        <v>4.6310149999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1420.840000</v>
+        <v>1420.84</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.628000</v>
+        <v>-313.62799999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>16682.818122</v>
+        <v>16682.818122000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.634116</v>
+        <v>4.6341159999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1440.260000</v>
+        <v>1440.26</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.021000</v>
+        <v>-366.02100000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>16693.785195</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.637163</v>
+        <v>4.6371630000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1525.930000</v>
+        <v>1525.93</v>
       </c>
       <c r="BG9" s="1">
-        <v>-615.831000</v>
+        <v>-615.83100000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>16704.919851</v>
+        <v>16704.919850999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.640256</v>
+        <v>4.6402559999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1681.020000</v>
+        <v>1681.02</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1063.270000</v>
+        <v>-1063.27</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>16715.428591</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.643175</v>
+        <v>4.6431750000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.360000</v>
+        <v>1977.36</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1838.310000</v>
+        <v>-1838.31</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>16725.946257</v>
@@ -2490,634 +2906,634 @@
         <v>4.646096</v>
       </c>
       <c r="BU9" s="1">
-        <v>2365.640000</v>
+        <v>2365.64</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2731.880000</v>
+        <v>-2731.88</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>16736.680673</v>
+        <v>16736.680672999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.649078</v>
+        <v>4.6490780000000003</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2856.650000</v>
+        <v>2856.65</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3707.150000</v>
+        <v>-3707.15</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>16748.727010</v>
+        <v>16748.727009999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.652424</v>
+        <v>4.6524239999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4290.080000</v>
+        <v>4290.08</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6043.640000</v>
+        <v>-6043.64</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>16576.790356</v>
+        <v>16576.790356000001</v>
       </c>
       <c r="B10" s="1">
-        <v>4.604664</v>
+        <v>4.6046639999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.950000</v>
+        <v>1240.95</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.428000</v>
+        <v>-306.428</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>16586.703369</v>
+        <v>16586.703368999999</v>
       </c>
       <c r="G10" s="1">
         <v>4.607418</v>
       </c>
       <c r="H10" s="1">
-        <v>1265.310000</v>
+        <v>1265.31</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.727000</v>
+        <v>-264.72699999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>16597.040026</v>
+        <v>16597.040025999999</v>
       </c>
       <c r="L10" s="1">
-        <v>4.610289</v>
+        <v>4.6102889999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1300.130000</v>
+        <v>1300.1300000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.379000</v>
+        <v>-201.37899999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>16607.585436</v>
+        <v>16607.585436000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.613218</v>
+        <v>4.6132179999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1311.720000</v>
+        <v>1311.72</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.804000</v>
+        <v>-183.804</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>16618.120960</v>
+        <v>16618.12096</v>
       </c>
       <c r="V10" s="1">
-        <v>4.616145</v>
+        <v>4.6161450000000004</v>
       </c>
       <c r="W10" s="1">
-        <v>1324.640000</v>
+        <v>1324.64</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.505000</v>
+        <v>-170.505</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>16628.691728</v>
+        <v>16628.691728000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.619081</v>
+        <v>4.6190810000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.446000</v>
+        <v>-168.446</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>16639.219810</v>
+        <v>16639.219809999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.622006</v>
+        <v>4.6220059999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1354.130000</v>
+        <v>1354.13</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.517000</v>
+        <v>-178.517</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>16649.917988</v>
+        <v>16649.917988000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.624977</v>
+        <v>4.6249770000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>1374.670000</v>
+        <v>1374.67</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.774000</v>
+        <v>-208.774</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>16660.953013</v>
+        <v>16660.953012999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.628043</v>
+        <v>4.6280429999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1396.240000</v>
+        <v>1396.24</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.116000</v>
+        <v>-253.11600000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>16672.018231</v>
+        <v>16672.018230999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.631116</v>
+        <v>4.6311159999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>1420.870000</v>
+        <v>1420.87</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.595000</v>
+        <v>-313.59500000000003</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>16683.164394</v>
+        <v>16683.164393999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.634212</v>
+        <v>4.6342119999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1440.240000</v>
+        <v>1440.24</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.070000</v>
+        <v>-366.07</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>16694.496922</v>
+        <v>16694.496921999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.637360</v>
+        <v>4.6373600000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1525.890000</v>
+        <v>1525.89</v>
       </c>
       <c r="BG10" s="1">
-        <v>-615.838000</v>
+        <v>-615.83799999999997</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>16705.670299</v>
+        <v>16705.670299000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.640464</v>
+        <v>4.6404639999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1681.070000</v>
+        <v>1681.07</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1063.260000</v>
+        <v>-1063.26</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>16715.826414</v>
+        <v>16715.826413999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.643285</v>
+        <v>4.6432849999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.350000</v>
+        <v>1977.35</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1838.280000</v>
+        <v>-1838.28</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>16726.374335</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.646215</v>
+        <v>4.6462149999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2365.640000</v>
+        <v>2365.64</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2731.750000</v>
+        <v>-2731.75</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>16737.100289</v>
+        <v>16737.100289000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.649195</v>
+        <v>4.6491949999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2855.850000</v>
+        <v>2855.85</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3706.460000</v>
+        <v>-3706.46</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>16749.570704</v>
+        <v>16749.570704000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.652659</v>
+        <v>4.6526589999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4300.900000</v>
+        <v>4300.8999999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6052.460000</v>
+        <v>-6052.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>16576.956017</v>
       </c>
       <c r="B11" s="1">
-        <v>4.604710</v>
+        <v>4.6047099999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1240.960000</v>
+        <v>1240.96</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.637000</v>
+        <v>-306.637</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>16587.049575</v>
+        <v>16587.049575000001</v>
       </c>
       <c r="G11" s="1">
-        <v>4.607514</v>
+        <v>4.6075140000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1265.680000</v>
+        <v>1265.68</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.941000</v>
+        <v>-263.94099999999997</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>16597.388683</v>
+        <v>16597.388683000001</v>
       </c>
       <c r="L11" s="1">
-        <v>4.610386</v>
+        <v>4.6103860000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1300.120000</v>
+        <v>1300.1199999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.012000</v>
+        <v>-202.012</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>16607.939084</v>
+        <v>16607.939084000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.613316</v>
+        <v>4.6133160000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1311.700000</v>
+        <v>1311.7</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.741000</v>
+        <v>-183.74100000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>16618.537630</v>
+        <v>16618.537629999999</v>
       </c>
       <c r="V11" s="1">
-        <v>4.616260</v>
+        <v>4.6162599999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.369000</v>
+        <v>-170.369</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>16628.970945</v>
+        <v>16628.970945000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.619159</v>
+        <v>4.6191589999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1341.420000</v>
+        <v>1341.42</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.280000</v>
+        <v>-168.28</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>16639.515890</v>
+        <v>16639.515889999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.622088</v>
+        <v>4.6220879999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1354.400000</v>
+        <v>1354.4</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.566000</v>
+        <v>-178.566</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>16650.270186</v>
+        <v>16650.270186000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.625075</v>
+        <v>4.6250749999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1374.630000</v>
+        <v>1374.63</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.776000</v>
+        <v>-208.77600000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>16661.313573</v>
+        <v>16661.313572999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.628143</v>
+        <v>4.6281429999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1396.230000</v>
+        <v>1396.23</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.108000</v>
+        <v>-253.108</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>16672.382791</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.631217</v>
+        <v>4.6312170000000004</v>
       </c>
       <c r="AV11" s="1">
-        <v>1420.830000</v>
+        <v>1420.83</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.591000</v>
+        <v>-313.59100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>16683.879591</v>
+        <v>16683.879591000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.634411</v>
+        <v>4.6344110000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1440.250000</v>
+        <v>1440.25</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.048000</v>
+        <v>-366.048</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>16694.866937</v>
+        <v>16694.866936999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.637463</v>
+        <v>4.6374630000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1525.920000</v>
+        <v>1525.92</v>
       </c>
       <c r="BG11" s="1">
-        <v>-615.841000</v>
+        <v>-615.84100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>16706.048748</v>
+        <v>16706.048748000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.640569</v>
+        <v>4.6405690000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1681.100000</v>
+        <v>1681.1</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1063.260000</v>
+        <v>-1063.26</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>16716.242525</v>
+        <v>16716.242525000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.643401</v>
+        <v>4.6434009999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.380000</v>
+        <v>1977.38</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1838.250000</v>
+        <v>-1838.25</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>16726.784495</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.646329</v>
+        <v>4.6463289999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.930000</v>
+        <v>2365.9299999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2731.780000</v>
+        <v>-2731.78</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>16737.849249</v>
+        <v>16737.849248999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.649403</v>
+        <v>4.6494030000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2855.950000</v>
+        <v>2855.95</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3707.320000</v>
+        <v>-3707.32</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>16749.805809</v>
+        <v>16749.805809000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.652724</v>
+        <v>4.6527240000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4303.080000</v>
+        <v>4303.08</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6053.250000</v>
+        <v>-6053.25</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>16577.298737</v>
+        <v>16577.298737000001</v>
       </c>
       <c r="B12" s="1">
-        <v>4.604805</v>
+        <v>4.6048049999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.261000</v>
+        <v>-306.26100000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>16587.395323</v>
+        <v>16587.395323000001</v>
       </c>
       <c r="G12" s="1">
-        <v>4.607610</v>
+        <v>4.6076100000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1265.100000</v>
+        <v>1265.0999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-263.717000</v>
+        <v>-263.71699999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>16597.798912</v>
+        <v>16597.798911999998</v>
       </c>
       <c r="L12" s="1">
-        <v>4.610500</v>
+        <v>4.6105</v>
       </c>
       <c r="M12" s="1">
-        <v>1300.200000</v>
+        <v>1300.2</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.698000</v>
+        <v>-201.69800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>16608.356219</v>
+        <v>16608.356219000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.613432</v>
+        <v>4.6134320000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>1311.730000</v>
+        <v>1311.73</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.699000</v>
+        <v>-183.69900000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>16618.826766</v>
+        <v>16618.826765999998</v>
       </c>
       <c r="V12" s="1">
-        <v>4.616341</v>
+        <v>4.6163410000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1324.470000</v>
+        <v>1324.47</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.290000</v>
+        <v>-170.29</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>16629.320623</v>
@@ -3126,2219 +3542,2219 @@
         <v>4.619256</v>
       </c>
       <c r="AB12" s="1">
-        <v>1341.410000</v>
+        <v>1341.41</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.427000</v>
+        <v>-168.42699999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>16639.858163</v>
+        <v>16639.858163000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.622183</v>
+        <v>4.6221829999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1354.300000</v>
+        <v>1354.3</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.735000</v>
+        <v>-178.73500000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>16650.617347</v>
+        <v>16650.617346999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.625171</v>
+        <v>4.6251709999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.797000</v>
+        <v>-208.797</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>16662.039222</v>
+        <v>16662.039221999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.628344</v>
+        <v>4.6283440000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1396.270000</v>
+        <v>1396.27</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.102000</v>
+        <v>-253.102</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>16673.113397</v>
+        <v>16673.113397000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.631420</v>
+        <v>4.6314200000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>1420.860000</v>
+        <v>1420.86</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.605000</v>
+        <v>-313.60500000000002</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>16684.236711</v>
+        <v>16684.236711000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.634510</v>
+        <v>4.6345099999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>1440.240000</v>
+        <v>1440.24</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.074000</v>
+        <v>-366.07400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>16695.227033</v>
+        <v>16695.227032999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.637563</v>
+        <v>4.6375630000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1525.900000</v>
+        <v>1525.9</v>
       </c>
       <c r="BG12" s="1">
-        <v>-615.799000</v>
+        <v>-615.79899999999998</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>16706.424746</v>
+        <v>16706.424746000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.640674</v>
+        <v>4.6406739999999997</v>
       </c>
       <c r="BK12" s="1">
-        <v>1681.040000</v>
+        <v>1681.04</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1063.270000</v>
+        <v>-1063.27</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>16716.946348</v>
+        <v>16716.946348000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.643596</v>
+        <v>4.6435959999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.300000</v>
+        <v>1977.3</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1838.190000</v>
+        <v>-1838.19</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>16727.221471</v>
+        <v>16727.221471000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.646450</v>
+        <v>4.6464499999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.470000</v>
+        <v>2365.4699999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2731.860000</v>
+        <v>-2731.86</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>16737.992646</v>
+        <v>16737.992645999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.649442</v>
+        <v>4.6494419999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2855.540000</v>
+        <v>2855.54</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3707.420000</v>
+        <v>-3707.42</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>16750.326640</v>
+        <v>16750.326639999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.652869</v>
+        <v>4.6528689999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4290.890000</v>
+        <v>4290.8900000000003</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6039.000000</v>
+        <v>-6039</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>16577.706932</v>
+        <v>16577.706932000001</v>
       </c>
       <c r="B13" s="1">
-        <v>4.604919</v>
+        <v>4.6049189999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1241.170000</v>
+        <v>1241.17</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.501000</v>
+        <v>-306.50099999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>16587.804523</v>
+        <v>16587.804522999999</v>
       </c>
       <c r="G13" s="1">
         <v>4.607723</v>
       </c>
       <c r="H13" s="1">
-        <v>1265.590000</v>
+        <v>1265.5899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.156000</v>
+        <v>-264.15600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>16598.096969</v>
+        <v>16598.096968999998</v>
       </c>
       <c r="L13" s="1">
         <v>4.610582</v>
       </c>
       <c r="M13" s="1">
-        <v>1300.050000</v>
+        <v>1300.05</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.799000</v>
+        <v>-201.79900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>16608.631041</v>
+        <v>16608.631041000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.613509</v>
+        <v>4.6135089999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>1311.720000</v>
+        <v>1311.72</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.669000</v>
+        <v>-183.66900000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>16619.169854</v>
       </c>
       <c r="V13" s="1">
-        <v>4.616436</v>
+        <v>4.6164360000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.329000</v>
+        <v>-170.32900000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>16629.671295</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.619353</v>
+        <v>4.6193530000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1341.330000</v>
+        <v>1341.33</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.591000</v>
+        <v>-168.59100000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>16640.201514</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.622278</v>
+        <v>4.6222779999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1354.160000</v>
+        <v>1354.16</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.563000</v>
+        <v>-178.56299999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>16651.312770</v>
+        <v>16651.31277</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.625365</v>
+        <v>4.6253650000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.818000</v>
+        <v>-208.81800000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>16662.419652</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.628450</v>
+        <v>4.62845</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1396.240000</v>
+        <v>1396.24</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.095000</v>
+        <v>-253.095</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>16673.504245</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.631529</v>
+        <v>4.6315289999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>1420.840000</v>
+        <v>1420.84</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.562000</v>
+        <v>-313.56200000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>16684.595318</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.634610</v>
+        <v>4.6346100000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1440.300000</v>
+        <v>1440.3</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.026000</v>
+        <v>-366.02600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>16695.905064</v>
+        <v>16695.905063999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.637751</v>
+        <v>4.6377509999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1525.900000</v>
+        <v>1525.9</v>
       </c>
       <c r="BG13" s="1">
-        <v>-615.803000</v>
+        <v>-615.803</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>16707.109193</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.640864</v>
+        <v>4.6408639999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1681.110000</v>
+        <v>1681.11</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1063.140000</v>
+        <v>-1063.1400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>16717.079275</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.643633</v>
+        <v>4.6436330000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.340000</v>
+        <v>1977.34</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1838.230000</v>
+        <v>-1838.23</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>16727.646079</v>
+        <v>16727.646078999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.646568</v>
+        <v>4.6465680000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.580000</v>
+        <v>2365.58</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2732.010000</v>
+        <v>-2732.01</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>16738.419679</v>
+        <v>16738.419678999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.649561</v>
+        <v>4.6495610000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2855.990000</v>
+        <v>2855.99</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3707.370000</v>
+        <v>-3707.37</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>16750.844431</v>
+        <v>16750.844431000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.653012</v>
+        <v>4.6530120000000004</v>
       </c>
       <c r="CE13" s="1">
-        <v>4279.860000</v>
+        <v>4279.8599999999997</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6053.810000</v>
+        <v>-6053.81</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>16577.985188</v>
+        <v>16577.985187999999</v>
       </c>
       <c r="B14" s="1">
-        <v>4.604996</v>
+        <v>4.6049959999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.845000</v>
+        <v>-306.84500000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>16588.085718</v>
+        <v>16588.085717999998</v>
       </c>
       <c r="G14" s="1">
-        <v>4.607802</v>
+        <v>4.6078020000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.473000</v>
+        <v>-264.47300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>16598.444168</v>
+        <v>16598.444168000002</v>
       </c>
       <c r="L14" s="1">
-        <v>4.610679</v>
+        <v>4.6106790000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1300.200000</v>
+        <v>1300.2</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.743000</v>
+        <v>-201.74299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>16608.990107</v>
+        <v>16608.990107000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.613608</v>
+        <v>4.6136080000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1311.760000</v>
+        <v>1311.76</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.676000</v>
+        <v>-183.67599999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>16619.513229</v>
       </c>
       <c r="V14" s="1">
-        <v>4.616531</v>
+        <v>4.6165310000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1324.600000</v>
+        <v>1324.6</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.492000</v>
+        <v>-170.49199999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>16630.367182</v>
+        <v>16630.367182000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.619546</v>
+        <v>4.6195459999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1341.540000</v>
+        <v>1341.54</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.498000</v>
+        <v>-168.49799999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>16640.886338</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.622468</v>
+        <v>4.6224679999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>1354.230000</v>
+        <v>1354.23</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.590000</v>
+        <v>-178.59</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>16651.662450</v>
+        <v>16651.66245</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.625462</v>
+        <v>4.6254619999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>1374.610000</v>
+        <v>1374.61</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.772000</v>
+        <v>-208.77199999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>16662.780739</v>
+        <v>16662.780739000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.628550</v>
+        <v>4.6285499999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1396.290000</v>
+        <v>1396.29</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.117000</v>
+        <v>-253.11699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>16673.866820</v>
+        <v>16673.866819999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.631630</v>
+        <v>4.6316300000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>1420.830000</v>
+        <v>1420.83</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.586000</v>
+        <v>-313.58600000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>16685.269878</v>
+        <v>16685.269877999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.634797</v>
+        <v>4.6347969999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1440.230000</v>
+        <v>1440.23</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.028000</v>
+        <v>-366.02800000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>16696.337588</v>
+        <v>16696.337587999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.637872</v>
+        <v>4.6378719999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1525.910000</v>
+        <v>1525.91</v>
       </c>
       <c r="BG14" s="1">
-        <v>-615.834000</v>
+        <v>-615.83399999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>16707.552120</v>
+        <v>16707.55212</v>
       </c>
       <c r="BJ14" s="1">
         <v>4.640987</v>
       </c>
       <c r="BK14" s="1">
-        <v>1681.040000</v>
+        <v>1681.04</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1063.220000</v>
+        <v>-1063.22</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>16717.489467</v>
+        <v>16717.489466999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.643747</v>
+        <v>4.6437470000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.200000</v>
+        <v>1977.2</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1838.200000</v>
+        <v>-1838.2</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>16728.055277</v>
+        <v>16728.055276999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.646682</v>
+        <v>4.6466820000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>2365.400000</v>
+        <v>2365.4</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2731.810000</v>
+        <v>-2731.81</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>16738.836287</v>
+        <v>16738.836286999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.649677</v>
+        <v>4.6496769999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2856.020000</v>
+        <v>2856.02</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3706.740000</v>
+        <v>-3706.74</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>16751.361758</v>
+        <v>16751.361757999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.653156</v>
+        <v>4.6531560000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4294.440000</v>
+        <v>4294.4399999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6061.470000</v>
+        <v>-6061.47</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>16578.320980</v>
+        <v>16578.32098</v>
       </c>
       <c r="B15" s="1">
-        <v>4.605089</v>
+        <v>4.6050890000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>1241.110000</v>
+        <v>1241.1099999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.962000</v>
+        <v>-306.96199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>16588.429446</v>
+        <v>16588.429445999998</v>
       </c>
       <c r="G15" s="1">
-        <v>4.607897</v>
+        <v>4.6078970000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1266.080000</v>
+        <v>1266.08</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.812000</v>
+        <v>-263.81200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>16598.788413</v>
+        <v>16598.788412999998</v>
       </c>
       <c r="L15" s="1">
-        <v>4.610775</v>
+        <v>4.6107750000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>1300.250000</v>
+        <v>1300.25</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.018000</v>
+        <v>-202.018</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>16609.320442</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.613700</v>
+        <v>4.6136999999999997</v>
       </c>
       <c r="R15" s="1">
-        <v>1311.730000</v>
+        <v>1311.73</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.821000</v>
+        <v>-183.821</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>16620.199706</v>
+        <v>16620.199705999999</v>
       </c>
       <c r="V15" s="1">
-        <v>4.616722</v>
+        <v>4.6167220000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1324.450000</v>
+        <v>1324.45</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.421000</v>
+        <v>-170.42099999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>16630.714878</v>
+        <v>16630.714877999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.619643</v>
+        <v>4.6196429999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1341.370000</v>
+        <v>1341.37</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.406000</v>
+        <v>-168.40600000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>16641.231584</v>
+        <v>16641.231584000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.622564</v>
+        <v>4.6225639999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>1354.150000</v>
+        <v>1354.15</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.532000</v>
+        <v>-178.53200000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>16652.012097</v>
+        <v>16652.012096999999</v>
       </c>
       <c r="AK15" s="1">
         <v>4.625559</v>
       </c>
       <c r="AL15" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.764000</v>
+        <v>-208.76400000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>16663.443395</v>
+        <v>16663.443394999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.628734</v>
+        <v>4.6287339999999997</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1396.250000</v>
+        <v>1396.25</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.090000</v>
+        <v>-253.09</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>16674.543365</v>
+        <v>16674.543365000001</v>
       </c>
       <c r="AU15" s="1">
         <v>4.631818</v>
       </c>
       <c r="AV15" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.598000</v>
+        <v>-313.59800000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>16685.672597</v>
+        <v>16685.672597000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.634909</v>
+        <v>4.6349090000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1440.270000</v>
+        <v>1440.27</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.039000</v>
+        <v>-366.03899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>16696.703650</v>
+        <v>16696.703649999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.637973</v>
+        <v>4.6379729999999997</v>
       </c>
       <c r="BF15" s="1">
-        <v>1525.880000</v>
+        <v>1525.88</v>
       </c>
       <c r="BG15" s="1">
-        <v>-615.859000</v>
+        <v>-615.85900000000004</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>16707.924119</v>
+        <v>16707.924118999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.641090</v>
+        <v>4.6410900000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1681.100000</v>
+        <v>1681.1</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1063.130000</v>
+        <v>-1063.1300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>16717.884778</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.643857</v>
+        <v>4.6438569999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.330000</v>
+        <v>1977.33</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1837.920000</v>
+        <v>-1837.92</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>16728.486269</v>
+        <v>16728.486269000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.646802</v>
+        <v>4.6468020000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2365.420000</v>
+        <v>2365.42</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2731.900000</v>
+        <v>-2731.9</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>16739.281696</v>
+        <v>16739.281695999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.649800</v>
+        <v>4.6497999999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2855.870000</v>
+        <v>2855.87</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3706.930000</v>
+        <v>-3706.93</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>16751.880574</v>
+        <v>16751.880573999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.653300</v>
+        <v>4.6532999999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4289.420000</v>
+        <v>4289.42</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6059.020000</v>
+        <v>-6059.02</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>16578.663218</v>
+        <v>16578.663218000002</v>
       </c>
       <c r="B16" s="1">
-        <v>4.605184</v>
+        <v>4.6051840000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.254000</v>
+        <v>-306.25400000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>16588.774662</v>
       </c>
       <c r="G16" s="1">
-        <v>4.607993</v>
+        <v>4.6079929999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>1266.200000</v>
+        <v>1266.2</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.184000</v>
+        <v>-264.18400000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>16599.486263</v>
+        <v>16599.486262999999</v>
       </c>
       <c r="L16" s="1">
-        <v>4.610968</v>
+        <v>4.6109679999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>1300.070000</v>
+        <v>1300.07</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.052000</v>
+        <v>-202.05199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>16610.026249</v>
+        <v>16610.026248999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.613896</v>
+        <v>4.6138960000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1311.690000</v>
+        <v>1311.69</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.759000</v>
+        <v>-183.75899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>16620.543419</v>
+        <v>16620.543419000001</v>
       </c>
       <c r="V16" s="1">
-        <v>4.616818</v>
+        <v>4.6168180000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.316000</v>
+        <v>-170.316</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>16631.064061</v>
+        <v>16631.064061000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.619740</v>
+        <v>4.6197400000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1341.460000</v>
+        <v>1341.46</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.559000</v>
+        <v>-168.559</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>16641.574816</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.622660</v>
+        <v>4.6226599999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1354.320000</v>
+        <v>1354.32</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.502000</v>
+        <v>-178.50200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>16652.660368</v>
+        <v>16652.660368000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.625739</v>
+        <v>4.6257390000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.791000</v>
+        <v>-208.791</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>16663.859042</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.628850</v>
+        <v>4.6288499999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1396.210000</v>
+        <v>1396.21</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.097000</v>
+        <v>-253.09700000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>16674.998238</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.631944</v>
+        <v>4.6319439999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1420.830000</v>
+        <v>1420.83</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.575000</v>
+        <v>-313.57499999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>16686.061989</v>
+        <v>16686.061989000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.635017</v>
+        <v>4.6350170000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1440.240000</v>
+        <v>1440.24</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.080000</v>
+        <v>-366.08</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>16697.062936</v>
+        <v>16697.062935999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.638073</v>
+        <v>4.6380730000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1525.880000</v>
+        <v>1525.88</v>
       </c>
       <c r="BG16" s="1">
-        <v>-615.822000</v>
+        <v>-615.822</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>16708.299097</v>
+        <v>16708.299096999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.641194</v>
+        <v>4.6411939999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1681.080000</v>
+        <v>1681.08</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1063.230000</v>
+        <v>-1063.23</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>16718.304890</v>
+        <v>16718.304889999999</v>
       </c>
       <c r="BO16" s="1">
         <v>4.643974</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.240000</v>
+        <v>1977.24</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1838.060000</v>
+        <v>-1838.06</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>16728.913325</v>
+        <v>16728.913325000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.646920</v>
+        <v>4.6469199999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2365.540000</v>
+        <v>2365.54</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2731.830000</v>
+        <v>-2731.83</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>16739.705774</v>
+        <v>16739.705773999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.649918</v>
+        <v>4.6499180000000004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2855.270000</v>
+        <v>2855.27</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3706.980000</v>
+        <v>-3706.98</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>16752.431630</v>
+        <v>16752.431629999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.653453</v>
+        <v>4.6534529999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>4279.800000</v>
+        <v>4279.8</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6051.230000</v>
+        <v>-6051.23</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>16579.346707</v>
+        <v>16579.346707000001</v>
       </c>
       <c r="B17" s="1">
-        <v>4.605374</v>
+        <v>4.6053740000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>1241.150000</v>
+        <v>1241.1500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.426000</v>
+        <v>-306.42599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>16589.459173</v>
+        <v>16589.459172999999</v>
       </c>
       <c r="G17" s="1">
-        <v>4.608183</v>
+        <v>4.6081830000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.374000</v>
+        <v>-264.37400000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>16599.834952</v>
+        <v>16599.834952000001</v>
       </c>
       <c r="L17" s="1">
         <v>4.611065</v>
       </c>
       <c r="M17" s="1">
-        <v>1300.480000</v>
+        <v>1300.48</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.894000</v>
+        <v>-201.89400000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>16610.376426</v>
+        <v>16610.376425999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.613993</v>
+        <v>4.6139929999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>1311.680000</v>
+        <v>1311.68</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.736000</v>
+        <v>-183.73599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>16620.884171</v>
+        <v>16620.884171000002</v>
       </c>
       <c r="V17" s="1">
-        <v>4.616912</v>
+        <v>4.6169120000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1324.410000</v>
+        <v>1324.41</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.486000</v>
+        <v>-170.48599999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>16631.714316</v>
+        <v>16631.714316000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.619921</v>
+        <v>4.6199209999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>1341.350000</v>
+        <v>1341.35</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.518000</v>
+        <v>-168.518</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>16642.231984</v>
+        <v>16642.231983999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.622842</v>
+        <v>4.6228420000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>1354.040000</v>
+        <v>1354.04</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.493000</v>
+        <v>-178.49299999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>16653.057169</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.625849</v>
+        <v>4.6258489999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.773000</v>
+        <v>-208.773</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>16664.241955</v>
+        <v>16664.241955000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.628956</v>
+        <v>4.6289559999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1396.240000</v>
+        <v>1396.24</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.108000</v>
+        <v>-253.108</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>16675.363747</v>
+        <v>16675.363746999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.632045</v>
+        <v>4.6320449999999997</v>
       </c>
       <c r="AV17" s="1">
-        <v>1420.860000</v>
+        <v>1420.86</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.565000</v>
+        <v>-313.565</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>16686.419604</v>
+        <v>16686.419603999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.635117</v>
+        <v>4.6351170000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1440.260000</v>
+        <v>1440.26</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.044000</v>
+        <v>-366.04399999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>16697.481847</v>
+        <v>16697.481846999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.638189</v>
+        <v>4.6381889999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1525.860000</v>
+        <v>1525.86</v>
       </c>
       <c r="BG17" s="1">
-        <v>-615.722000</v>
+        <v>-615.72199999999998</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>16708.726646</v>
+        <v>16708.726645999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.641313</v>
+        <v>4.6413130000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1681.090000</v>
+        <v>1681.09</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1063.140000</v>
+        <v>-1063.1400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>16718.705163</v>
+        <v>16718.705162999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.644085</v>
+        <v>4.6440849999999996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.230000</v>
+        <v>1977.23</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1838.000000</v>
+        <v>-1838</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>16729.326718</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.647035</v>
+        <v>4.6470349999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>2365.370000</v>
+        <v>2365.37</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2732.150000</v>
+        <v>-2732.15</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>16740.378349</v>
+        <v>16740.378348999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.650105</v>
+        <v>4.6501049999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2855.960000</v>
+        <v>2855.96</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3706.930000</v>
+        <v>-3706.93</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>16752.961393</v>
+        <v>16752.961393000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.653600</v>
+        <v>4.6536</v>
       </c>
       <c r="CE17" s="1">
-        <v>4292.260000</v>
+        <v>4292.26</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6060.500000</v>
+        <v>-6060.5</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>16579.692923</v>
+        <v>16579.692922999999</v>
       </c>
       <c r="B18" s="1">
-        <v>4.605470</v>
+        <v>4.6054700000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>1241.090000</v>
+        <v>1241.0899999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.596000</v>
+        <v>-306.596</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>16589.805867</v>
+        <v>16589.805866999999</v>
       </c>
       <c r="G18" s="1">
-        <v>4.608279</v>
+        <v>4.6082789999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>1265.900000</v>
+        <v>1265.9000000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.550000</v>
+        <v>-264.55</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>16600.179670</v>
+        <v>16600.179670000001</v>
       </c>
       <c r="L18" s="1">
-        <v>4.611161</v>
+        <v>4.6111610000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.824000</v>
+        <v>-201.82400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>16611.035143</v>
+        <v>16611.035143000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.614176</v>
+        <v>4.6141759999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1311.790000</v>
+        <v>1311.79</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.662000</v>
+        <v>-183.66200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>16621.532442</v>
       </c>
       <c r="V18" s="1">
-        <v>4.617092</v>
+        <v>4.6170920000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>1324.520000</v>
+        <v>1324.52</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.324000</v>
+        <v>-170.32400000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>16632.112108</v>
+        <v>16632.112108000001</v>
       </c>
       <c r="AA18" s="1">
         <v>4.620031</v>
       </c>
       <c r="AB18" s="1">
-        <v>1341.560000</v>
+        <v>1341.56</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.290000</v>
+        <v>-168.29</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>16642.602990</v>
+        <v>16642.602989999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.622945</v>
+        <v>4.6229449999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>1354.090000</v>
+        <v>1354.09</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.601000</v>
+        <v>-178.601</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>16653.404865</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.625946</v>
+        <v>4.6259459999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.804000</v>
+        <v>-208.804</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>16664.590642</v>
+        <v>16664.590641999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.629053</v>
+        <v>4.6290529999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1396.250000</v>
+        <v>1396.25</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.072000</v>
+        <v>-253.072</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>16675.726818</v>
+        <v>16675.726817999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.632146</v>
+        <v>4.6321459999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1420.830000</v>
+        <v>1420.83</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.556000</v>
+        <v>-313.55599999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>16686.844147</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.635234</v>
+        <v>4.6352339999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1440.240000</v>
+        <v>1440.24</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.006000</v>
+        <v>-366.00599999999997</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>16697.792355</v>
+        <v>16697.792355000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.638276</v>
+        <v>4.6382760000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1525.870000</v>
+        <v>1525.87</v>
       </c>
       <c r="BG18" s="1">
-        <v>-615.730000</v>
+        <v>-615.73</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>16709.055532</v>
+        <v>16709.055531999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.641404</v>
+        <v>4.6414039999999996</v>
       </c>
       <c r="BK18" s="1">
-        <v>1681.150000</v>
+        <v>1681.15</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1063.100000</v>
+        <v>-1063.0999999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>16719.124778</v>
+        <v>16719.124778000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.644201</v>
+        <v>4.6442009999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.210000</v>
+        <v>1977.21</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1837.880000</v>
+        <v>-1837.88</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>16729.756564</v>
+        <v>16729.756563999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.647155</v>
+        <v>4.6471549999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>2365.700000</v>
+        <v>2365.6999999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2732.020000</v>
+        <v>-2732.02</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>16740.887277</v>
+        <v>16740.887277000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.650246</v>
+        <v>4.6502460000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2855.780000</v>
+        <v>2855.78</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3705.710000</v>
+        <v>-3705.71</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>16753.481697</v>
+        <v>16753.481696999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.653745</v>
+        <v>4.6537449999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>4296.760000</v>
+        <v>4296.76</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6038.830000</v>
+        <v>-6038.83</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>16580.032178</v>
+        <v>16580.032178000001</v>
       </c>
       <c r="B19" s="1">
-        <v>4.605564</v>
+        <v>4.6055640000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1241.430000</v>
+        <v>1241.43</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.077000</v>
+        <v>-306.077</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>16590.158995</v>
+        <v>16590.158995000002</v>
       </c>
       <c r="G19" s="1">
-        <v>4.608377</v>
+        <v>4.6083769999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1265.390000</v>
+        <v>1265.3900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.744000</v>
+        <v>-263.74400000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>16600.833894</v>
+        <v>16600.833893999999</v>
       </c>
       <c r="L19" s="1">
-        <v>4.611343</v>
+        <v>4.6113429999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>1300.000000</v>
+        <v>1300</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.616000</v>
+        <v>-201.61600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>16611.422487</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.614284</v>
+        <v>4.6142839999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>1311.820000</v>
+        <v>1311.82</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.724000</v>
+        <v>-183.72399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>16621.915386</v>
+        <v>16621.915386000001</v>
       </c>
       <c r="V19" s="1">
-        <v>4.617199</v>
+        <v>4.6171990000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.228000</v>
+        <v>-170.22800000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>16632.457819</v>
+        <v>16632.457818999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.620127</v>
+        <v>4.6201270000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1341.360000</v>
+        <v>1341.36</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.594000</v>
+        <v>-168.59399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>16642.944734</v>
+        <v>16642.944734000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.623040</v>
+        <v>4.6230399999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>1354.180000</v>
+        <v>1354.18</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.345000</v>
+        <v>-178.345</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>16653.754080</v>
+        <v>16653.754079999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.626043</v>
+        <v>4.6260430000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.788000</v>
+        <v>-208.78800000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>16665.015958</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.629171</v>
+        <v>4.6291710000000004</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1396.210000</v>
+        <v>1396.21</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.076000</v>
+        <v>-253.07599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>16676.141970</v>
+        <v>16676.141970000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.632262</v>
+        <v>4.6322619999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.589000</v>
+        <v>-313.589</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>16687.136787</v>
+        <v>16687.136786999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.635316</v>
+        <v>4.6353160000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>1440.220000</v>
+        <v>1440.22</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.002000</v>
+        <v>-366.00200000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>16698.144043</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.638373</v>
+        <v>4.6383729999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1525.890000</v>
+        <v>1525.89</v>
       </c>
       <c r="BG19" s="1">
-        <v>-615.759000</v>
+        <v>-615.75900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>16709.492981</v>
+        <v>16709.492980999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.641526</v>
+        <v>4.6415259999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1680.960000</v>
+        <v>1680.96</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1063.180000</v>
+        <v>-1063.18</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>16719.519599</v>
+        <v>16719.519598999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.644311</v>
+        <v>4.6443110000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.130000</v>
+        <v>1977.13</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1837.910000</v>
+        <v>-1837.91</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>16730.184602</v>
+        <v>16730.184602000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.647274</v>
+        <v>4.6472740000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>2365.220000</v>
+        <v>2365.2199999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2732.220000</v>
+        <v>-2732.22</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>16741.312831</v>
+        <v>16741.312830999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.650365</v>
+        <v>4.6503649999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2855.770000</v>
+        <v>2855.77</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3705.750000</v>
+        <v>-3705.75</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>16754.020314</v>
+        <v>16754.020314000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.653895</v>
+        <v>4.6538950000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>4282.830000</v>
+        <v>4282.83</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6058.980000</v>
+        <v>-6058.98</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>16580.683921</v>
       </c>
       <c r="B20" s="1">
-        <v>4.605746</v>
+        <v>4.6057459999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1241.040000</v>
+        <v>1241.04</v>
       </c>
       <c r="D20" s="1">
-        <v>-306.551000</v>
+        <v>-306.55099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>16590.803298</v>
+        <v>16590.803297999999</v>
       </c>
       <c r="G20" s="1">
-        <v>4.608556</v>
+        <v>4.6085560000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1266.020000</v>
+        <v>1266.02</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.042000</v>
+        <v>-264.04199999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>16601.215844</v>
+        <v>16601.215843999998</v>
       </c>
       <c r="L20" s="1">
-        <v>4.611449</v>
+        <v>4.6114490000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>1300.060000</v>
+        <v>1300.06</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.653000</v>
+        <v>-201.65299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>16611.769686</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.614380</v>
+        <v>4.6143799999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>1311.770000</v>
+        <v>1311.77</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.728000</v>
+        <v>-183.72800000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>16622.258089</v>
+        <v>16622.258088999999</v>
       </c>
       <c r="V20" s="1">
-        <v>4.617294</v>
+        <v>4.6172940000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1324.480000</v>
+        <v>1324.48</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.474000</v>
+        <v>-170.47399999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>16632.803569</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.620223</v>
+        <v>4.6202230000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1341.410000</v>
+        <v>1341.41</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.697000</v>
+        <v>-168.697</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>16643.293421</v>
+        <v>16643.293420999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.623137</v>
+        <v>4.6231369999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1354.230000</v>
+        <v>1354.23</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.479000</v>
+        <v>-178.47900000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>16654.173663</v>
+        <v>16654.173663000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.626159</v>
+        <v>4.6261590000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>1374.640000</v>
+        <v>1374.64</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.768000</v>
+        <v>-208.768</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>16665.320764</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.629256</v>
+        <v>4.6292559999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1396.220000</v>
+        <v>1396.22</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.103000</v>
+        <v>-253.10300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>16676.455441</v>
+        <v>16676.455440999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.632349</v>
+        <v>4.6323489999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>1420.830000</v>
+        <v>1420.83</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.596000</v>
+        <v>-313.596</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>16687.497200</v>
+        <v>16687.497200000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.635416</v>
+        <v>4.6354160000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1440.230000</v>
+        <v>1440.23</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.030000</v>
+        <v>-366.03</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>16698.504596</v>
+        <v>16698.504595999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.638473</v>
+        <v>4.6384730000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1525.880000</v>
+        <v>1525.88</v>
       </c>
       <c r="BG20" s="1">
-        <v>-615.746000</v>
+        <v>-615.74599999999998</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>16710.091639</v>
+        <v>16710.091638999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.641692</v>
+        <v>4.6416919999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1681.040000</v>
+        <v>1681.04</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1063.140000</v>
+        <v>-1063.1400000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>16719.939703</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.644428</v>
+        <v>4.6444279999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.150000</v>
+        <v>1977.15</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1837.820000</v>
+        <v>-1837.82</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>16730.596778</v>
+        <v>16730.596777999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.647388</v>
+        <v>4.6473880000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>2365.540000</v>
+        <v>2365.54</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2732.100000</v>
+        <v>-2732.1</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>16741.755773</v>
+        <v>16741.755773000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.650488</v>
+        <v>4.6504880000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2855.150000</v>
+        <v>2855.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3706.880000</v>
+        <v>-3706.88</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>16754.560458</v>
@@ -5347,1178 +5763,1178 @@
         <v>4.654045</v>
       </c>
       <c r="CE20" s="1">
-        <v>4300.120000</v>
+        <v>4300.12</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6049.380000</v>
+        <v>-6049.38</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>16581.053935</v>
       </c>
       <c r="B21" s="1">
-        <v>4.605848</v>
+        <v>4.6058479999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1241.180000</v>
+        <v>1241.18</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.477000</v>
+        <v>-306.47699999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>16591.190179</v>
+        <v>16591.190179000001</v>
       </c>
       <c r="G21" s="1">
-        <v>4.608664</v>
+        <v>4.6086640000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1266.700000</v>
+        <v>1266.7</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.617000</v>
+        <v>-264.61700000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>16601.562548</v>
+        <v>16601.562548000002</v>
       </c>
       <c r="L21" s="1">
-        <v>4.611545</v>
+        <v>4.6115449999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>1299.940000</v>
+        <v>1299.94</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.875000</v>
+        <v>-201.875</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>16612.120603</v>
+        <v>16612.120602999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.614478</v>
+        <v>4.6144780000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1311.760000</v>
+        <v>1311.76</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.725000</v>
+        <v>-183.72499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>16622.602313</v>
+        <v>16622.602312999999</v>
       </c>
       <c r="V21" s="1">
-        <v>4.617390</v>
+        <v>4.6173900000000003</v>
       </c>
       <c r="W21" s="1">
-        <v>1324.630000</v>
+        <v>1324.63</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.391000</v>
+        <v>-170.39099999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>16633.220668</v>
+        <v>16633.220668000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.620339</v>
+        <v>4.6203390000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1341.300000</v>
+        <v>1341.3</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.441000</v>
+        <v>-168.441</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>16643.975420</v>
+        <v>16643.975419999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.623327</v>
+        <v>4.6233269999999997</v>
       </c>
       <c r="AG21" s="1">
-        <v>1354.030000</v>
+        <v>1354.03</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.496000</v>
+        <v>-178.49600000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>16654.461838</v>
+        <v>16654.461837999999</v>
       </c>
       <c r="AK21" s="1">
         <v>4.626239</v>
       </c>
       <c r="AL21" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.821000</v>
+        <v>-208.821</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>16665.686305</v>
+        <v>16665.686304999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.629357</v>
+        <v>4.6293569999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1396.240000</v>
+        <v>1396.24</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.080000</v>
+        <v>-253.08</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>16676.820535</v>
+        <v>16676.820534999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.632450</v>
+        <v>4.6324500000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.580000</v>
+        <v>-313.58</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>16687.855988</v>
+        <v>16687.855987999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>4.635516</v>
       </c>
       <c r="BA21" s="1">
-        <v>1440.270000</v>
+        <v>1440.27</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.045000</v>
+        <v>-366.04500000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>16699.227763</v>
+        <v>16699.227762999999</v>
       </c>
       <c r="BE21" s="1">
         <v>4.638674</v>
       </c>
       <c r="BF21" s="1">
-        <v>1525.870000</v>
+        <v>1525.87</v>
       </c>
       <c r="BG21" s="1">
-        <v>-615.737000</v>
+        <v>-615.73699999999997</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>16710.207700</v>
+        <v>16710.207699999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>4.641724</v>
       </c>
       <c r="BK21" s="1">
-        <v>1681.070000</v>
+        <v>1681.07</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1063.070000</v>
+        <v>-1063.07</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>16720.337495</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.644538</v>
+        <v>4.6445379999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.100000</v>
+        <v>1977.1</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1837.890000</v>
+        <v>-1837.89</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>16731.029785</v>
+        <v>16731.029784999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.647508</v>
+        <v>4.6475080000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>2365.160000</v>
+        <v>2365.16</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2732.310000</v>
+        <v>-2732.31</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>16742.191727</v>
+        <v>16742.191727000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.650609</v>
+        <v>4.6506090000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2855.930000</v>
+        <v>2855.93</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3706.590000</v>
+        <v>-3706.59</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>16755.409610</v>
+        <v>16755.409609999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.654280</v>
+        <v>4.65428</v>
       </c>
       <c r="CE21" s="1">
-        <v>4288.500000</v>
+        <v>4288.5</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6058.200000</v>
+        <v>-6058.2</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>16581.397199</v>
+        <v>16581.397198999999</v>
       </c>
       <c r="B22" s="1">
         <v>4.605944</v>
       </c>
       <c r="C22" s="1">
-        <v>1241.080000</v>
+        <v>1241.08</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.735000</v>
+        <v>-306.73500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>16591.533442</v>
       </c>
       <c r="G22" s="1">
-        <v>4.608759</v>
+        <v>4.6087590000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1266.040000</v>
+        <v>1266.04</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.352000</v>
+        <v>-264.35199999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>16601.907732</v>
       </c>
       <c r="L22" s="1">
-        <v>4.611641</v>
+        <v>4.6116409999999997</v>
       </c>
       <c r="M22" s="1">
-        <v>1300.380000</v>
+        <v>1300.3800000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.763000</v>
+        <v>-201.76300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>16612.539974</v>
+        <v>16612.539973999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.614594</v>
+        <v>4.6145940000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>1311.720000</v>
+        <v>1311.72</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.668000</v>
+        <v>-183.66800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>16623.009032</v>
+        <v>16623.009032000002</v>
       </c>
       <c r="V22" s="1">
-        <v>4.617503</v>
+        <v>4.6175030000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.424000</v>
+        <v>-170.42400000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>16633.512346</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.620420</v>
+        <v>4.6204200000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>1341.580000</v>
+        <v>1341.58</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.503000</v>
+        <v>-168.50299999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>16644.320635</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.623422</v>
+        <v>4.6234219999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>1354.160000</v>
+        <v>1354.16</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.470000</v>
+        <v>-178.47</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>16654.811518</v>
+        <v>16654.811517999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.626337</v>
+        <v>4.6263370000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.796000</v>
+        <v>-208.79599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>16666.044911</v>
+        <v>16666.044911000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.629457</v>
+        <v>4.6294570000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1396.240000</v>
+        <v>1396.24</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.050000</v>
+        <v>-253.05</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>16677.548129</v>
+        <v>16677.548128999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.632652</v>
+        <v>4.6326520000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1420.800000</v>
+        <v>1420.8</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.561000</v>
+        <v>-313.56099999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>16688.579649</v>
+        <v>16688.579648999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.635717</v>
+        <v>4.6357169999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>1440.240000</v>
+        <v>1440.24</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.038000</v>
+        <v>-366.03800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>16699.591331</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.638775</v>
+        <v>4.6387749999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1525.890000</v>
+        <v>1525.89</v>
       </c>
       <c r="BG22" s="1">
-        <v>-615.770000</v>
+        <v>-615.77</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>16710.573252</v>
+        <v>16710.573251999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>4.641826</v>
       </c>
       <c r="BK22" s="1">
-        <v>1681.050000</v>
+        <v>1681.05</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1063.090000</v>
+        <v>-1063.0899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>16720.758600</v>
+        <v>16720.758600000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.644655</v>
+        <v>4.6446550000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.130000</v>
+        <v>1977.13</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1838.010000</v>
+        <v>-1838.01</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>16731.758408</v>
+        <v>16731.758408000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.647711</v>
+        <v>4.6477110000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2365.630000</v>
+        <v>2365.63</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2732.230000</v>
+        <v>-2732.23</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>16742.946137</v>
+        <v>16742.946136999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.650818</v>
+        <v>4.6508180000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2855.600000</v>
+        <v>2855.6</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3706.120000</v>
+        <v>-3706.12</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>16755.640250</v>
+        <v>16755.64025</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.654345</v>
+        <v>4.6543450000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4287.110000</v>
+        <v>4287.1099999999997</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6059.630000</v>
+        <v>-6059.63</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>16581.737455</v>
+        <v>16581.737454999999</v>
       </c>
       <c r="B23" s="1">
-        <v>4.606038</v>
+        <v>4.6060379999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1241.130000</v>
+        <v>1241.1300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.569000</v>
+        <v>-306.56900000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>16591.880114</v>
       </c>
       <c r="G23" s="1">
-        <v>4.608856</v>
+        <v>4.6088560000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>1265.700000</v>
+        <v>1265.7</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.405000</v>
+        <v>-264.40499999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>16602.331811</v>
       </c>
       <c r="L23" s="1">
-        <v>4.611759</v>
+        <v>4.6117590000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1300.210000</v>
+        <v>1300.21</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.504000</v>
+        <v>-201.50399999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>16612.829143</v>
+        <v>16612.829142999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.614675</v>
+        <v>4.6146750000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1311.660000</v>
+        <v>1311.66</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.621000</v>
+        <v>-183.62100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>16623.314107</v>
+        <v>16623.314106999998</v>
       </c>
       <c r="V23" s="1">
-        <v>4.617587</v>
+        <v>4.6175870000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.318000</v>
+        <v>-170.31800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>16633.859515</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.620517</v>
+        <v>4.6205170000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>1341.430000</v>
+        <v>1341.43</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.586000</v>
+        <v>-168.58600000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>16644.665355</v>
+        <v>16644.665355000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.623518</v>
+        <v>4.6235179999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1354.300000</v>
+        <v>1354.3</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.353000</v>
+        <v>-178.35300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>16655.159214</v>
+        <v>16655.159213999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.626433</v>
+        <v>4.6264329999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>1374.610000</v>
+        <v>1374.61</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.846000</v>
+        <v>-208.846</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>16666.764111</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.629657</v>
+        <v>4.6296569999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1396.230000</v>
+        <v>1396.23</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.083000</v>
+        <v>-253.083</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>16677.939498</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.632761</v>
+        <v>4.6327610000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.565000</v>
+        <v>-313.565</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>16688.955616</v>
+        <v>16688.955615999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>4.635821</v>
       </c>
       <c r="BA23" s="1">
-        <v>1440.250000</v>
+        <v>1440.25</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.002000</v>
+        <v>-366.00200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>16699.951922</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.638876</v>
+        <v>4.6388759999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1525.880000</v>
+        <v>1525.88</v>
       </c>
       <c r="BG23" s="1">
-        <v>-615.695000</v>
+        <v>-615.69500000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>16711.254788</v>
+        <v>16711.254787999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.642015</v>
+        <v>4.6420149999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1681.070000</v>
+        <v>1681.07</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1063.110000</v>
+        <v>-1063.1099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>16721.465904</v>
+        <v>16721.465904000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.644852</v>
+        <v>4.6448520000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.220000</v>
+        <v>1977.22</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1837.780000</v>
+        <v>-1837.78</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>16731.902744</v>
+        <v>16731.902743999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.647751</v>
+        <v>4.6477510000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>2365.350000</v>
+        <v>2365.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2732.710000</v>
+        <v>-2732.71</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>16743.064185</v>
+        <v>16743.064184999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.650851</v>
+        <v>4.6508510000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2856.110000</v>
+        <v>2856.11</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3706.360000</v>
+        <v>-3706.36</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>16756.158072</v>
+        <v>16756.158071999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.654488</v>
+        <v>4.6544879999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>4303.270000</v>
+        <v>4303.2700000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6051.960000</v>
+        <v>-6051.96</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>16582.157534</v>
+        <v>16582.157534000002</v>
       </c>
       <c r="B24" s="1">
-        <v>4.606155</v>
+        <v>4.6061550000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1241.190000</v>
+        <v>1241.19</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.349000</v>
+        <v>-306.34899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>16592.305545</v>
+        <v>16592.305544999999</v>
       </c>
       <c r="G24" s="1">
-        <v>4.608974</v>
+        <v>4.6089739999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1265.390000</v>
+        <v>1265.3900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.352000</v>
+        <v>-263.35199999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>16602.612086</v>
+        <v>16602.612086000001</v>
       </c>
       <c r="L24" s="1">
-        <v>4.611837</v>
+        <v>4.6118370000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>1300.600000</v>
+        <v>1300.5999999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.722000</v>
+        <v>-201.72200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>16613.178821</v>
+        <v>16613.178821000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.614772</v>
+        <v>4.6147720000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>1311.750000</v>
+        <v>1311.75</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.617000</v>
+        <v>-183.61699999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>16623.658329</v>
+        <v>16623.658329000002</v>
       </c>
       <c r="V24" s="1">
-        <v>4.617683</v>
+        <v>4.6176830000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>1324.530000</v>
+        <v>1324.53</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.458000</v>
+        <v>-170.458</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>16634.208201</v>
+        <v>16634.208201000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.620613</v>
+        <v>4.6206129999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>1341.520000</v>
+        <v>1341.52</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.505000</v>
+        <v>-168.505</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>16645.351819</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.623709</v>
+        <v>4.6237089999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1354.210000</v>
+        <v>1354.21</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.508000</v>
+        <v>-178.50800000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>16655.856093</v>
+        <v>16655.856092999999</v>
       </c>
       <c r="AK24" s="1">
         <v>4.626627</v>
       </c>
       <c r="AL24" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.845000</v>
+        <v>-208.845</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>16667.123214</v>
+        <v>16667.123213999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.629756</v>
+        <v>4.6297560000000004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1396.240000</v>
+        <v>1396.24</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.055000</v>
+        <v>-253.05500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>16678.304527</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.632862</v>
+        <v>4.6328620000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.572000</v>
+        <v>-313.572</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>16689.334064</v>
+        <v>16689.334063999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.635926</v>
+        <v>4.6359260000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>1440.260000</v>
+        <v>1440.26</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.009000</v>
+        <v>-366.00900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>16700.616561</v>
+        <v>16700.616560999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.639060</v>
+        <v>4.6390599999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1525.880000</v>
+        <v>1525.88</v>
       </c>
       <c r="BG24" s="1">
-        <v>-615.754000</v>
+        <v>-615.75400000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>16711.362388</v>
+        <v>16711.362388000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.642045</v>
+        <v>4.6420450000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1680.970000</v>
+        <v>1680.97</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1063.120000</v>
+        <v>-1063.1199999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>16721.593365</v>
+        <v>16721.593365000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.644887</v>
+        <v>4.6448869999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.310000</v>
+        <v>1977.31</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1837.840000</v>
+        <v>-1837.84</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>16732.301993</v>
+        <v>16732.301993000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.647862</v>
+        <v>4.6478619999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2365.600000</v>
+        <v>2365.6</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2732.530000</v>
+        <v>-2732.53</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>16743.491241</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.650970</v>
+        <v>4.65097</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2854.950000</v>
+        <v>2854.95</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3705.890000</v>
+        <v>-3705.89</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>16756.676391</v>
+        <v>16756.676391000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.654632</v>
+        <v>4.6546320000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>4292.540000</v>
+        <v>4292.54</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6037.540000</v>
+        <v>-6037.54</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>16582.435295</v>
+        <v>16582.435294999999</v>
       </c>
       <c r="B25" s="1">
-        <v>4.606232</v>
+        <v>4.6062320000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>1240.830000</v>
+        <v>1240.83</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.413000</v>
+        <v>-306.41300000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>16592.574016</v>
+        <v>16592.574015999999</v>
       </c>
       <c r="G25" s="1">
-        <v>4.609048</v>
+        <v>4.6090479999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>1266.220000</v>
+        <v>1266.22</v>
       </c>
       <c r="I25" s="1">
-        <v>-263.755000</v>
+        <v>-263.755</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>16602.958258</v>
+        <v>16602.958257999999</v>
       </c>
       <c r="L25" s="1">
-        <v>4.611933</v>
+        <v>4.6119329999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>1300.570000</v>
+        <v>1300.57</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.911000</v>
+        <v>-201.911</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>16613.531012</v>
+        <v>16613.531011999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.614870</v>
+        <v>4.6148699999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1311.830000</v>
+        <v>1311.83</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.700000</v>
+        <v>-183.7</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>16624.000567</v>
+        <v>16624.000566999999</v>
       </c>
       <c r="V25" s="1">
-        <v>4.617778</v>
+        <v>4.6177780000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>1324.480000</v>
+        <v>1324.48</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.399000</v>
+        <v>-170.399</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>16634.907064</v>
+        <v>16634.907063999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.620808</v>
+        <v>4.6208080000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1341.550000</v>
+        <v>1341.55</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.458000</v>
+        <v>-168.458</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>16645.695581</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.623804</v>
+        <v>4.6238039999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1354.250000</v>
+        <v>1354.25</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.454000</v>
+        <v>-178.45400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>16656.204284</v>
+        <v>16656.204283999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.626723</v>
+        <v>4.6267230000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1374.650000</v>
+        <v>1374.65</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.795000</v>
+        <v>-208.79499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>16667.484301</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.629857</v>
+        <v>4.6298570000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1396.270000</v>
+        <v>1396.27</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.102000</v>
+        <v>-253.102</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>16678.983054</v>
@@ -6527,210 +6943,210 @@
         <v>4.633051</v>
       </c>
       <c r="AV25" s="1">
-        <v>1420.850000</v>
+        <v>1420.85</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.546000</v>
+        <v>-313.54599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>16689.985344</v>
+        <v>16689.985344000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>4.636107</v>
       </c>
       <c r="BA25" s="1">
-        <v>1440.240000</v>
+        <v>1440.24</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.013000</v>
+        <v>-366.01299999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>16701.067425</v>
+        <v>16701.067425000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.639185</v>
+        <v>4.6391850000000003</v>
       </c>
       <c r="BF25" s="1">
-        <v>1525.900000</v>
+        <v>1525.9</v>
       </c>
       <c r="BG25" s="1">
-        <v>-615.725000</v>
+        <v>-615.72500000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>16711.720034</v>
+        <v>16711.720034000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>4.642144</v>
       </c>
       <c r="BK25" s="1">
-        <v>1681.010000</v>
+        <v>1681.01</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1063.060000</v>
+        <v>-1063.06</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>16722.001109</v>
+        <v>16722.001109000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.645000</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.100000</v>
+        <v>1977.1</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1837.750000</v>
+        <v>-1837.75</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>16732.743281</v>
+        <v>16732.743280999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.647984</v>
+        <v>4.6479840000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2365.570000</v>
+        <v>2365.5700000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2732.680000</v>
+        <v>-2732.68</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>16744.133560</v>
+        <v>16744.133559999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.651148</v>
+        <v>4.6511480000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2855.050000</v>
+        <v>2855.05</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3706.280000</v>
+        <v>-3706.28</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>16757.195704</v>
+        <v>16757.195704000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.654777</v>
+        <v>4.6547770000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>4280.370000</v>
+        <v>4280.37</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6048.090000</v>
+        <v>-6048.09</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>16582.781005</v>
+        <v>16582.781005000001</v>
       </c>
       <c r="B26" s="1">
-        <v>4.606328</v>
+        <v>4.6063280000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>1240.810000</v>
+        <v>1240.81</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.654000</v>
+        <v>-306.654</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>16592.918240</v>
+        <v>16592.918239999999</v>
       </c>
       <c r="G26" s="1">
-        <v>4.609144</v>
+        <v>4.6091439999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>1265.780000</v>
+        <v>1265.78</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.151000</v>
+        <v>-264.15100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>16603.303512</v>
+        <v>16603.303511999999</v>
       </c>
       <c r="L26" s="1">
-        <v>4.612029</v>
+        <v>4.6120289999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>1300.110000</v>
+        <v>1300.1099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.738000</v>
+        <v>-201.738</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>16614.225380</v>
+        <v>16614.22538</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.615063</v>
+        <v>4.6150630000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1311.710000</v>
+        <v>1311.71</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.702000</v>
+        <v>-183.702</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>16624.686225</v>
+        <v>16624.686225000001</v>
       </c>
       <c r="V26" s="1">
-        <v>4.617968</v>
+        <v>4.6179680000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>1324.560000</v>
+        <v>1324.56</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.279000</v>
+        <v>-170.279</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>16635.255784</v>
+        <v>16635.255784000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.620904</v>
+        <v>4.6209040000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1341.440000</v>
+        <v>1341.44</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.492000</v>
+        <v>-168.49199999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>16646.043242</v>
@@ -6739,165 +7155,166 @@
         <v>4.623901</v>
       </c>
       <c r="AG26" s="1">
-        <v>1353.860000</v>
+        <v>1353.86</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.488000</v>
+        <v>-178.488</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>16656.553468</v>
+        <v>16656.553467999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.626820</v>
+        <v>4.6268200000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>1374.620000</v>
+        <v>1374.62</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.862000</v>
+        <v>-208.86199999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>16668.144016</v>
+        <v>16668.144015999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.630040</v>
+        <v>4.6300400000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1396.220000</v>
+        <v>1396.22</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.085000</v>
+        <v>-253.08500000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>16679.425022</v>
+        <v>16679.425021999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.633174</v>
+        <v>4.6331740000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>1420.830000</v>
+        <v>1420.83</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.561000</v>
+        <v>-313.56099999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>16690.415343</v>
+        <v>16690.415343000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.636226</v>
+        <v>4.6362259999999997</v>
       </c>
       <c r="BA26" s="1">
-        <v>1440.250000</v>
+        <v>1440.25</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.020000</v>
+        <v>-366.02</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>16701.428512</v>
+        <v>16701.428511999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.639286</v>
+        <v>4.6392860000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1525.870000</v>
+        <v>1525.87</v>
       </c>
       <c r="BG26" s="1">
-        <v>-615.756000</v>
+        <v>-615.75599999999997</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>16712.095480</v>
+        <v>16712.09548</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.642249</v>
+        <v>4.6422489999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1680.950000</v>
+        <v>1680.95</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1063.040000</v>
+        <v>-1063.04</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>16722.396884</v>
+        <v>16722.396884000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.645110</v>
+        <v>4.6451099999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.250000</v>
+        <v>1977.25</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1837.670000</v>
+        <v>-1837.67</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>16733.167542</v>
+        <v>16733.167541999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.648102</v>
+        <v>4.6481019999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>2365.790000</v>
+        <v>2365.79</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2732.920000</v>
+        <v>-2732.92</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>16744.357255</v>
+        <v>16744.357254999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.651210</v>
+        <v>4.6512099999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2855.400000</v>
+        <v>2855.4</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3706.540000</v>
+        <v>-3706.54</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>16757.710087</v>
+        <v>16757.710086999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.654919</v>
+        <v>4.6549189999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>4284.260000</v>
+        <v>4284.26</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6043.270000</v>
+        <v>-6043.27</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>